--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,15 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
   <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
     <t xml:space="preserve">How to cold start a meter using 1132?</t>
   </si>
   <si>
     <t xml:space="preserve">What is RadioShop?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I install Command Center?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send Seed files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How can I perform a PCA test on a meter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to install RadioShop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where do I find DCW Folder?</t>
   </si>
 </sst>
 </file>
@@ -104,12 +122,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -130,32 +152,79 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3673469387755"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
